--- a/modele/refroidissement.xlsx
+++ b/modele/refroidissement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85293FA-E6A6-4EDF-9510-783E9831E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777862-2097-43D2-A00A-C644EB776AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="4" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
@@ -3434,7 +3434,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/modele/refroidissement.xlsx
+++ b/modele/refroidissement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777862-2097-43D2-A00A-C644EB776AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CEBF6-1D64-467C-975C-943907FB92A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="4" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="2" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="49" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="170">
   <si>
     <t>zone_climatique</t>
   </si>
@@ -557,6 +557,48 @@
   </si>
   <si>
     <t>Ratio de dimensionnement de l'installation</t>
+  </si>
+  <si>
+    <t>energie_generateur</t>
+  </si>
+  <si>
+    <t>Fioul domestique</t>
+  </si>
+  <si>
+    <t>Bois – Bûches</t>
+  </si>
+  <si>
+    <t>Bois – Granulés (pellets) ou briquettes</t>
+  </si>
+  <si>
+    <t>Bois – Plaquettes forestières</t>
+  </si>
+  <si>
+    <t>Bois – Plaquettes d’industrie</t>
+  </si>
+  <si>
+    <t>Réseau de Chauffage urbain</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Charbon</t>
+  </si>
+  <si>
+    <t>Électricité d'origine renouvelable utilisée dans le bâtiment</t>
+  </si>
+  <si>
+    <t>autre combustible fossile</t>
+  </si>
+  <si>
+    <t>Réseau de Froid Urbain</t>
+  </si>
+  <si>
+    <t>enum_type_energie</t>
   </si>
 </sst>
 </file>
@@ -650,7 +692,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -811,54 +856,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12C5C0B-0456-4D05-8B2D-ED5474B199B4}" name="modele" displayName="modele" ref="A1:J31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12C5C0B-0456-4D05-8B2D-ED5474B199B4}" name="modele" displayName="modele" ref="A1:J31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:J31" xr:uid="{E12C5C0B-0456-4D05-8B2D-ED5474B199B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
     <sortCondition ref="B1:B15"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{616B3DA7-77AC-45EB-B154-FB4DDE532A2A}" name="domaine" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{94EDB6E0-A76F-4642-ADAE-C75BA60CE735}" name="scope" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{AB32DB51-11DC-4620-B52D-0BE1BB42FBCF}" name="variable" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{A6D861D8-1B0C-4680-9E35-BDC4CE7F4A2F}" name="description" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{69F73071-25B5-43A5-A5A1-8313C6A3C99D}" name="type" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{DD5DB30C-613D-4937-97D7-8DB746B4FA4B}" name="format" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{60B4E664-974C-4DED-AE39-26525AAD1982}" name="unite" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{FE6B9CD5-5E58-4C35-962A-61A3099D5D42}" name="statut" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{0C1160F4-DBC3-454C-B8FB-63198FE773ED}" name="nullable" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{E954DABB-D664-4433-91A6-217C8F89B245}" name="opendata_xpath" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{616B3DA7-77AC-45EB-B154-FB4DDE532A2A}" name="domaine" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{94EDB6E0-A76F-4642-ADAE-C75BA60CE735}" name="scope" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{AB32DB51-11DC-4620-B52D-0BE1BB42FBCF}" name="variable" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{A6D861D8-1B0C-4680-9E35-BDC4CE7F4A2F}" name="description" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{69F73071-25B5-43A5-A5A1-8313C6A3C99D}" name="type" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{DD5DB30C-613D-4937-97D7-8DB746B4FA4B}" name="format" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{60B4E664-974C-4DED-AE39-26525AAD1982}" name="unite" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{FE6B9CD5-5E58-4C35-962A-61A3099D5D42}" name="statut" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{0C1160F4-DBC3-454C-B8FB-63198FE773ED}" name="nullable" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{E954DABB-D664-4433-91A6-217C8F89B245}" name="opendata_xpath" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{43F0D3F9-24DE-464F-80CB-AF18DEC071CC}" name="enums" displayName="enums" ref="A1:D13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{43F0D3F9-24DE-464F-80CB-AF18DEC071CC}" name="enums" displayName="enums" ref="A1:D13" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:D13" xr:uid="{43F0D3F9-24DE-464F-80CB-AF18DEC071CC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{49D1C290-CF16-48DE-9691-72997DEAEE6D}" name="enum" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{B112EB5B-8001-4925-9DBF-9DAD9F22BAC9}" name="const" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CD19472B-D769-46E5-A7E0-46F780DCAB55}" name="description" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{97D8A0B5-59BE-4CCC-8A27-274144EEF879}" name="deprecated" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{49D1C290-CF16-48DE-9691-72997DEAEE6D}" name="enum" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B112EB5B-8001-4925-9DBF-9DAD9F22BAC9}" name="const" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{CD19472B-D769-46E5-A7E0-46F780DCAB55}" name="description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{97D8A0B5-59BE-4CCC-8A27-274144EEF879}" name="deprecated" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{959BC1FE-D009-4BC6-A7C6-ED1F30E748E0}" name="correspondance" displayName="correspondance" ref="A1:G46" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:G46" xr:uid="{959BC1FE-D009-4BC6-A7C6-ED1F30E748E0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G46">
-    <sortCondition ref="E1:E46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{959BC1FE-D009-4BC6-A7C6-ED1F30E748E0}" name="correspondance" displayName="correspondance" ref="A1:H84" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:H84" xr:uid="{959BC1FE-D009-4BC6-A7C6-ED1F30E748E0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="F1:F46"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{6B6688DA-A93A-4D7F-A974-7C0518E88A37}" name="table" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{0A8FEF7A-6D66-4DCF-9043-1F084C96B71C}" name="table_id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{BEFF713C-C90E-49FF-8037-3292851AB72E}" name="table_description" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{39876D5B-5A93-4E16-A810-84651ED8DB7B}" name="enum" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{A03CA6D4-0915-4EF5-900D-09C40FF8F1E1}" name="attribut" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{323F3F52-7818-4735-BA3A-7A6B2435BA40}" name="valeur" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{71AC82FB-36A1-4DB8-9FF6-3D6C353B7AC6}" name="controle" dataDxfId="12">
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{6B6688DA-A93A-4D7F-A974-7C0518E88A37}" name="table" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{0A8FEF7A-6D66-4DCF-9043-1F084C96B71C}" name="table_id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{BEFF713C-C90E-49FF-8037-3292851AB72E}" name="table_description" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{C3FDFA0A-E02A-4EA2-BB5E-F978B6F11BD8}" name="scope" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{39876D5B-5A93-4E16-A810-84651ED8DB7B}" name="enum" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{A03CA6D4-0915-4EF5-900D-09C40FF8F1E1}" name="attribut" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{323F3F52-7818-4735-BA3A-7A6B2435BA40}" name="valeur" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{71AC82FB-36A1-4DB8-9FF6-3D6C353B7AC6}" name="controle" dataDxfId="13">
       <calculatedColumnFormula array="1">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -867,21 +913,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB499C3-34E3-4E8B-BAEB-6942E6BA4D44}" name="energie" displayName="energie" ref="A1:B11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB499C3-34E3-4E8B-BAEB-6942E6BA4D44}" name="energie" displayName="energie" ref="A1:B11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B11" xr:uid="{7DB499C3-34E3-4E8B-BAEB-6942E6BA4D44}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A37BF29-CBC3-4820-B4D1-37DC6EFF2F58}" name="type_generateur" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0D8224D4-AF7F-404C-B6F8-E6CF142DED14}" name="energie" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3A37BF29-CBC3-4820-B4D1-37DC6EFF2F58}" name="type_generateur" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0D8224D4-AF7F-404C-B6F8-E6CF142DED14}" name="energie" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A24CDBE-1CB4-4974-BD12-ED87FD69CC42}" name="seer" displayName="seer" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A24CDBE-1CB4-4974-BD12-ED87FD69CC42}" name="seer" displayName="seer" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F10" xr:uid="{6A24CDBE-1CB4-4974-BD12-ED87FD69CC42}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -891,12 +937,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{971FF5EA-5E03-4EBC-A35F-3F91BF865DD5}" name="zone_climatique" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7ED9D96E-EA34-48D1-86F8-DC5A4AD5775A}" name="annee_installation_generateur[gte]" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DC16C863-70CF-4359-BFDE-F7EBDADE2427}" name="annee_installation_generateur[lte]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E9F2DD7A-A1E0-49B8-A00D-6A2ACB8E4219}" name="seer" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F6B6B606-B57A-41C1-A74E-249B7C67B4EF}" name="eer" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{09B9B6DD-8AE8-46B6-9165-80720BA3CABE}" name="tv_seer_id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{971FF5EA-5E03-4EBC-A35F-3F91BF865DD5}" name="zone_climatique" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7ED9D96E-EA34-48D1-86F8-DC5A4AD5775A}" name="annee_installation_generateur[gte]" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DC16C863-70CF-4359-BFDE-F7EBDADE2427}" name="annee_installation_generateur[lte]" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E9F2DD7A-A1E0-49B8-A00D-6A2ACB8E4219}" name="seer" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F6B6B606-B57A-41C1-A74E-249B7C67B4EF}" name="eer" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{09B9B6DD-8AE8-46B6-9165-80720BA3CABE}" name="tv_seer_id" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,7 +2099,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891803E9-0F08-43F2-99E1-C4F0B8E05523}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,14 +2290,15 @@
     <col min="1" max="1" width="26.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="4"/>
+    <col min="4" max="4" width="15.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -2262,19 +2309,22 @@
         <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -2284,19 +2334,22 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>2007</v>
       </c>
-      <c r="G2" s="6" t="str" cm="1">
-        <f t="array" ref="G2">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H2" s="6" t="str" cm="1">
+        <f t="array" ref="H2">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -2306,19 +2359,22 @@
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>2007</v>
       </c>
-      <c r="G3" s="6" t="str" cm="1">
-        <f t="array" ref="G3">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H3" s="6" t="str" cm="1">
+        <f t="array" ref="H3">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -2328,19 +2384,22 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>2014</v>
       </c>
-      <c r="G4" s="6" t="str" cm="1">
-        <f t="array" ref="G4">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H4" s="6" t="str" cm="1">
+        <f t="array" ref="H4">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -2350,19 +2409,22 @@
       <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>2014</v>
       </c>
-      <c r="G5" s="6" t="str" cm="1">
-        <f t="array" ref="G5">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H5" s="6" t="str" cm="1">
+        <f t="array" ref="H5">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -2372,19 +2434,22 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="6" t="str" cm="1">
-        <f t="array" ref="G6">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H6" s="6" t="str" cm="1">
+        <f t="array" ref="H6">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2394,19 +2459,22 @@
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="6" t="str" cm="1">
-        <f t="array" ref="G7">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H7" s="6" t="str" cm="1">
+        <f t="array" ref="H7">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2416,19 +2484,22 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2007</v>
       </c>
-      <c r="G8" s="6" t="str" cm="1">
-        <f t="array" ref="G8">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H8" s="6" t="str" cm="1">
+        <f t="array" ref="H8">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2438,19 +2509,22 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>2014</v>
       </c>
-      <c r="G9" s="6" t="str" cm="1">
-        <f t="array" ref="G9">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H9" s="6" t="str" cm="1">
+        <f t="array" ref="H9">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -2460,19 +2534,22 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>2016</v>
       </c>
-      <c r="G10" s="6" t="str" cm="1">
-        <f t="array" ref="G10">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H10" s="6" t="str" cm="1">
+        <f t="array" ref="H10">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -2482,19 +2559,22 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="6" t="str" cm="1">
-        <f t="array" ref="G11">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H11" s="6" t="str" cm="1">
+        <f t="array" ref="H11">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2504,19 +2584,22 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>2007</v>
       </c>
-      <c r="G12" s="6" t="str" cm="1">
-        <f t="array" ref="G12">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H12" s="6" t="str" cm="1">
+        <f t="array" ref="H12">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2526,19 +2609,22 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2014</v>
       </c>
-      <c r="G13" s="6" t="str" cm="1">
-        <f t="array" ref="G13">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H13" s="6" t="str" cm="1">
+        <f t="array" ref="H13">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2548,19 +2634,22 @@
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>2016</v>
       </c>
-      <c r="G14" s="6" t="str" cm="1">
-        <f t="array" ref="G14">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H14" s="6" t="str" cm="1">
+        <f t="array" ref="H14">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2570,19 +2659,22 @@
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="6" t="str" cm="1">
-        <f t="array" ref="G15">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H15" s="6" t="str" cm="1">
+        <f t="array" ref="H15">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2592,19 +2684,22 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>2007</v>
       </c>
-      <c r="G16" s="6" t="str" cm="1">
-        <f t="array" ref="G16">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H16" s="6" t="str" cm="1">
+        <f t="array" ref="H16">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2614,19 +2709,22 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>2014</v>
       </c>
-      <c r="G17" s="6" t="str" cm="1">
-        <f t="array" ref="G17">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H17" s="6" t="str" cm="1">
+        <f t="array" ref="H17">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -2636,19 +2734,22 @@
       <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>2016</v>
       </c>
-      <c r="G18" s="6" t="str" cm="1">
-        <f t="array" ref="G18">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H18" s="6" t="str" cm="1">
+        <f t="array" ref="H18">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2658,19 +2759,22 @@
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="6" t="str" cm="1">
-        <f t="array" ref="G19">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H19" s="6" t="str" cm="1">
+        <f t="array" ref="H19">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2680,19 +2784,22 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>2007</v>
       </c>
-      <c r="G20" s="6" t="str" cm="1">
-        <f t="array" ref="G20">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H20" s="6" t="str" cm="1">
+        <f t="array" ref="H20">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -2702,19 +2809,22 @@
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>2014</v>
       </c>
-      <c r="G21" s="6" t="str" cm="1">
-        <f t="array" ref="G21">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H21" s="6" t="str" cm="1">
+        <f t="array" ref="H21">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -2724,19 +2834,22 @@
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>2016</v>
       </c>
-      <c r="G22" s="6" t="str" cm="1">
-        <f t="array" ref="G22">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H22" s="6" t="str" cm="1">
+        <f t="array" ref="H22">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2746,19 +2859,22 @@
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="6" t="str" cm="1">
-        <f t="array" ref="G23">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H23" s="6" t="str" cm="1">
+        <f t="array" ref="H23">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -2769,20 +2885,23 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="5" t="str" cm="1">
-        <f t="array" ref="G24">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H24" s="5" t="str" cm="1">
+        <f t="array" ref="H24">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/air</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2793,20 +2912,23 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="6" t="str" cm="1">
-        <f t="array" ref="G25">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H25" s="6" t="str" cm="1">
+        <f t="array" ref="H25">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/air</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2817,20 +2939,23 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="6" t="str" cm="1">
-        <f t="array" ref="G26">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H26" s="6" t="str" cm="1">
+        <f t="array" ref="H26">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/air</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -2841,20 +2966,23 @@
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="6" t="str" cm="1">
-        <f t="array" ref="G27">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H27" s="6" t="str" cm="1">
+        <f t="array" ref="H27">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/eau</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2865,20 +2993,23 @@
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="6" t="str" cm="1">
-        <f t="array" ref="G28">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H28" s="6" t="str" cm="1">
+        <f t="array" ref="H28">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/eau</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2889,20 +3020,23 @@
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="6" t="str" cm="1">
-        <f t="array" ref="G29">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H29" s="6" t="str" cm="1">
+        <f t="array" ref="H29">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/eau</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -2913,20 +3047,23 @@
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="6" t="str" cm="1">
-        <f t="array" ref="G30">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H30" s="6" t="str" cm="1">
+        <f t="array" ref="H30">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC air/eau</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2937,20 +3074,23 @@
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="6" t="str" cm="1">
-        <f t="array" ref="G31">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H31" s="6" t="str" cm="1">
+        <f t="array" ref="H31">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau/eau</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2961,20 +3101,23 @@
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="6" t="str" cm="1">
-        <f t="array" ref="G32">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H32" s="6" t="str" cm="1">
+        <f t="array" ref="H32">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau/eau</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -2985,20 +3128,23 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="6" t="str" cm="1">
-        <f t="array" ref="G33">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H33" s="6" t="str" cm="1">
+        <f t="array" ref="H33">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau/eau</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3009,20 +3155,23 @@
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="6" t="str" cm="1">
-        <f t="array" ref="G34">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H34" s="6" t="str" cm="1">
+        <f t="array" ref="H34">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau/eau</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
@@ -3033,20 +3182,23 @@
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="6" t="str" cm="1">
-        <f t="array" ref="G35">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H35" s="6" t="str" cm="1">
+        <f t="array" ref="H35">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau glycolée/eau</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -3057,20 +3209,23 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="6" t="str" cm="1">
-        <f t="array" ref="G36">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H36" s="6" t="str" cm="1">
+        <f t="array" ref="H36">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau glycolée/eau</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3081,20 +3236,23 @@
         <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="6" t="str" cm="1">
-        <f t="array" ref="G37">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H37" s="6" t="str" cm="1">
+        <f t="array" ref="H37">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau glycolée/eau</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -3105,20 +3263,23 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="6" t="str" cm="1">
-        <f t="array" ref="G38">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H38" s="6" t="str" cm="1">
+        <f t="array" ref="H38">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC eau glycolée/eau</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
@@ -3129,20 +3290,23 @@
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="6" t="str" cm="1">
-        <f t="array" ref="G39">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H39" s="6" t="str" cm="1">
+        <f t="array" ref="H39">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC géothermique</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
@@ -3153,20 +3317,23 @@
         <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="6" t="str" cm="1">
-        <f t="array" ref="G40">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H40" s="6" t="str" cm="1">
+        <f t="array" ref="H40">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC géothermique</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -3177,20 +3344,23 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="6" t="str" cm="1">
-        <f t="array" ref="G41">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H41" s="6" t="str" cm="1">
+        <f t="array" ref="H41">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC géothermique</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3201,20 +3371,23 @@
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="6" t="str" cm="1">
-        <f t="array" ref="G42">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H42" s="6" t="str" cm="1">
+        <f t="array" ref="H42">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>PAC géothermique</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
@@ -3225,20 +3398,23 @@
         <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="6" t="str" cm="1">
-        <f t="array" ref="G43">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H43" s="6" t="str" cm="1">
+        <f t="array" ref="H43">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>Autre système thermodynamique électrique</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -3249,20 +3425,23 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="6" t="str" cm="1">
-        <f t="array" ref="G44">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H44" s="6" t="str" cm="1">
+        <f t="array" ref="H44">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>Autre système thermodynamique électrique</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
@@ -3273,20 +3452,23 @@
         <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="6" t="str" cm="1">
-        <f t="array" ref="G45">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H45" s="6" t="str" cm="1">
+        <f t="array" ref="H45">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>Autre système de refroidissement</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
@@ -3297,16 +3479,1029 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="6" t="str" cm="1">
-        <f t="array" ref="G46">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+      <c r="H46" s="6" t="str" cm="1">
+        <f t="array" ref="H46">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Réseau de froid urbain</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="6" t="str" cm="1">
+        <f t="array" ref="H47">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="6" t="str" cm="1">
+        <f t="array" ref="H48">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="6" t="str" cm="1">
+        <f t="array" ref="H49">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="6" t="str" cm="1">
+        <f t="array" ref="H50">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="6" t="str" cm="1">
+        <f t="array" ref="H51">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="6" t="str" cm="1">
+        <f t="array" ref="H52">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="6" t="str" cm="1">
+        <f t="array" ref="H53">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="6" t="str" cm="1">
+        <f t="array" ref="H54">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="6" t="str" cm="1">
+        <f t="array" ref="H55">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="2">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="6" t="str" cm="1">
+        <f t="array" ref="H56">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="6" t="str" cm="1">
+        <f t="array" ref="H57">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="2">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="6" t="str" cm="1">
+        <f t="array" ref="H58">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="6" t="str" cm="1">
+        <f t="array" ref="H59">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="2">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="6" t="str" cm="1">
+        <f t="array" ref="H60">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="2">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="6" t="str" cm="1">
+        <f t="array" ref="H61">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="2">
+        <v>16</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="6" t="str" cm="1">
+        <f t="array" ref="H62">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="2">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="6" t="str" cm="1">
+        <f t="array" ref="H63">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="2">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="6" t="str" cm="1">
+        <f t="array" ref="H64">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="2">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="6" t="str" cm="1">
+        <f t="array" ref="H65">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="2">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="6" t="str" cm="1">
+        <f t="array" ref="H66">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="2">
+        <v>21</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="6" t="str" cm="1">
+        <f t="array" ref="H67">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Gaz naturel</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="2">
+        <v>22</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="6" t="str" cm="1">
+        <f t="array" ref="H68">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="2">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="6" t="str" cm="1">
+        <f t="array" ref="H69">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Réseau de froid urbain</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="6" t="str" cm="1">
+        <f t="array" ref="H70">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="6" t="str" cm="1">
+        <f t="array" ref="H71">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Gaz naturel</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="6" t="str" cm="1">
+        <f t="array" ref="H72">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="6" t="str" cm="1">
+        <f t="array" ref="H73">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="6" t="str" cm="1">
+        <f t="array" ref="H74">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="6" t="str" cm="1">
+        <f t="array" ref="H75">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="2">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="6" t="str" cm="1">
+        <f t="array" ref="H76">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="2">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="6" t="str" cm="1">
+        <f t="array" ref="H77">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="2">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="6" t="str" cm="1">
+        <f t="array" ref="H78">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>GPL</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="2">
+        <v>10</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="6" t="str" cm="1">
+        <f t="array" ref="H79">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>GPL</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="2">
+        <v>11</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="6" t="str" cm="1">
+        <f t="array" ref="H80">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="2">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="6" t="str" cm="1">
+        <f t="array" ref="H81">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>Électricité</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="2">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="6" t="str" cm="1">
+        <f t="array" ref="H82">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v>GPL</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="2">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="6" t="str" cm="1">
+        <f t="array" ref="H83">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" s="6" t="str" cm="1">
+        <f t="array" ref="H84">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v>Réseau de froid urbain</v>
       </c>
     </row>
@@ -3431,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB8560-1849-4663-BEC7-5A3AFEA3FD45}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,7 +4824,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D17:D22">
+    <sortCondition ref="D17:D22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
